--- a/BackflipTrials.xlsx
+++ b/BackflipTrials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\ME599\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC5FDE4-51D4-4E88-BE52-0B76F0F671BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB7D8B1-EA16-4A93-8BD0-D7844B26E748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{BB880E8D-C535-43E7-B20A-286CC302DF3F}"/>
   </bookViews>
@@ -44,10 +44,10 @@
     <t>10x Time</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>Height (m)</t>
   </si>
   <si>
-    <t>height</t>
+    <t>Time (in air)</t>
   </si>
 </sst>
 </file>
@@ -2887,7 +2887,7 @@
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E12"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2895,7 +2895,9 @@
     <col min="1" max="1" width="9.06640625" style="1"/>
     <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.59765625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.06640625" style="1"/>
+    <col min="4" max="4" width="12.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.06640625" style="1"/>
+    <col min="6" max="6" width="10.86328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -2907,13 +2909,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">

--- a/BackflipTrials.xlsx
+++ b/BackflipTrials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\ME599\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB7D8B1-EA16-4A93-8BD0-D7844B26E748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863E707C-DECC-4BA2-A324-9F8CFAD3B539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{BB880E8D-C535-43E7-B20A-286CC302DF3F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Rear Gain</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>Time (in air)</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Avg 10x Time</t>
   </si>
 </sst>
 </file>
@@ -107,7 +116,22 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -122,10 +146,25 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -134,13 +173,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -152,7 +191,9 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -165,25 +206,49 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -192,70 +257,12 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -279,10 +286,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -291,25 +310,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -392,9 +399,9 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$4:$D$12</c:f>
-            </c:numRef>
+            <c:strRef>
+              <c:f>Sheet1!$E$4:$E$12</c:f>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -476,9 +483,9 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$4:$D$12</c:f>
-            </c:numRef>
+            <c:strRef>
+              <c:f>Sheet1!$E$4:$E$12</c:f>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -891,7 +898,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$12</c:f>
+              <c:f>Sheet1!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1006,7 +1013,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$12</c:f>
+              <c:f>Sheet1!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2512,13 +2519,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>392904</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>21431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
@@ -2548,13 +2555,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>502446</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>135731</xdr:rowOff>
@@ -2884,76 +2891,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3548EB-4C3B-4CAB-97B6-37EF45C8CEF0}">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="1"/>
     <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.06640625" style="1"/>
-    <col min="6" max="6" width="10.86328125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="17.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.06640625" style="1"/>
+    <col min="8" max="8" width="10.86328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="3" t="s">
+    <row r="2" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="13">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="8">
         <v>50</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="9">
         <v>2000</v>
       </c>
-      <c r="D4" s="14" t="str">
-        <f>IF(E4/10=0,"",E4/10)</f>
+      <c r="D4" s="9" t="str">
+        <f>IF((F4+G4)/2=0,"",(F4+G4)/2)</f>
         <v/>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16" t="e">
-        <f>9.81/8*D4^2</f>
+      <c r="E4" s="9" t="str">
+        <f>IF(D4="","",D4/10)</f>
+        <v/>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="e">
+        <f>9.81/8*E4^2</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="6">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="3">
         <v>75</v>
       </c>
       <c r="C5" s="2">
         <v>2000</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5:D12" si="0">IF(E5/10=0,"",E5/10)</f>
+        <f t="shared" ref="D5:D12" si="0">IF((F5+G5)/2=0,"",(F5+G5)/2)</f>
         <v/>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="5" t="e">
-        <f t="shared" ref="F5:F12" si="1">9.81/8*D5^2</f>
+      <c r="E5" s="2" t="str">
+        <f t="shared" ref="E5:E12" si="1">IF(D5="","",D5/10)</f>
+        <v/>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="16" t="e">
+        <f t="shared" ref="H5:H12" si="2">9.81/8*E5^2</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="6">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="3">
         <v>100</v>
       </c>
       <c r="C6" s="2">
@@ -2963,14 +2993,19 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="5" t="e">
+      <c r="E6" s="2" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="16" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="6">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="3">
         <v>200</v>
       </c>
       <c r="C7" s="2">
@@ -2980,14 +3015,19 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="5" t="e">
+      <c r="E7" s="2" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="16" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="6">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="3">
         <v>400</v>
       </c>
       <c r="C8" s="2">
@@ -2997,14 +3037,19 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="5" t="e">
+      <c r="E8" s="2" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="16" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="6">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="3">
         <v>800</v>
       </c>
       <c r="C9" s="2">
@@ -3014,14 +3059,19 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="5" t="e">
+      <c r="E9" s="2" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="16" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="6">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="3">
         <v>1100</v>
       </c>
       <c r="C10" s="2">
@@ -3031,14 +3081,19 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="5" t="e">
+      <c r="E10" s="2" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="16" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="6">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="3">
         <v>1400</v>
       </c>
       <c r="C11" s="2">
@@ -3048,26 +3103,36 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="5" t="e">
+      <c r="E11" s="2" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="16" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="7">
+    <row r="12" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="4">
         <v>2000</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>2700</v>
       </c>
-      <c r="D12" s="8" t="str">
+      <c r="D12" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="17" t="e">
+      <c r="E12" s="5" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="17" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
